--- a/510k/表/J角色.xlsx
+++ b/510k/表/J角色.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18285" windowHeight="8700"/>
+    <workbookView windowWidth="28215" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text/>
     </comment>
   </commentList>
@@ -29,11 +29,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>名称</t>
   </si>
   <si>
+    <t>等级</t>
+  </si>
+  <si>
     <t>初始id</t>
   </si>
   <si>
@@ -55,12 +58,6 @@
     <t>技能</t>
   </si>
   <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>最大等级</t>
-  </si>
-  <si>
     <t>升级所需欢乐豆</t>
   </si>
   <si>
@@ -79,13 +76,34 @@
     <t>mc</t>
   </si>
   <si>
+    <t>dj</t>
+  </si>
+  <si>
     <t>小志</t>
   </si>
   <si>
+    <t>小美</t>
+  </si>
+  <si>
+    <t>云飞</t>
+  </si>
+  <si>
+    <t>天拓</t>
+  </si>
+  <si>
+    <t>纳尔多纳</t>
+  </si>
+  <si>
+    <t>杰比斯</t>
+  </si>
+  <si>
+    <t>狗哥</t>
+  </si>
+  <si>
+    <t>财神</t>
+  </si>
+  <si>
     <t>双笙</t>
-  </si>
-  <si>
-    <t>狗哥</t>
   </si>
 </sst>
 </file>
@@ -98,7 +116,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,15 +132,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,14 +246,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,99 +268,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,31 +285,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,151 +453,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,17 +479,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,21 +542,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -528,39 +557,21 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -570,148 +581,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,29 +1081,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="12" max="12" width="17.25" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="11" max="11" width="17.25" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15">
+    <row r="1" spans="2:14">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
@@ -1122,63 +1134,821 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:12">
       <c r="A3">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E3">
+        <v>400</v>
+      </c>
+      <c r="F3">
         <v>500</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
       </c>
       <c r="G3">
         <v>200</v>
       </c>
       <c r="H3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>1000</v>
+      </c>
+      <c r="I3">
+        <v>200</v>
+      </c>
+      <c r="K3">
+        <v>1000</v>
+      </c>
+      <c r="L3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>1004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>1007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>1008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>1009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>1010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>1011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>1012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>1013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>1014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>1015</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>1016</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>1017</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>1018</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>1019</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>1020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>1021</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>1022</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>1023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>1024</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>1025</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>1026</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>1027</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>28</v>
+      </c>
+      <c r="D30">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>1028</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>1029</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>1030</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="D33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>1031</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>1032</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="D35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>1033</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <v>34</v>
+      </c>
+      <c r="D36">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>1034</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>35</v>
+      </c>
+      <c r="D37">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>1035</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>36</v>
+      </c>
+      <c r="D38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>1036</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39">
+        <v>37</v>
+      </c>
+      <c r="D39">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>1037</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <v>38</v>
+      </c>
+      <c r="D40">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>1038</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>39</v>
+      </c>
+      <c r="D41">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>1039</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>40</v>
+      </c>
+      <c r="D42">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43">
+        <v>400</v>
+      </c>
+      <c r="F43">
+        <v>500</v>
+      </c>
+      <c r="G43">
+        <v>200</v>
+      </c>
+      <c r="H43">
+        <v>1000</v>
+      </c>
+      <c r="I43">
+        <v>200</v>
+      </c>
+      <c r="K43">
+        <v>1000</v>
+      </c>
+      <c r="L43">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44">
+        <v>480</v>
+      </c>
+      <c r="F44">
+        <v>500</v>
+      </c>
+      <c r="G44">
+        <v>200</v>
+      </c>
+      <c r="H44">
+        <v>1000</v>
+      </c>
+      <c r="I44">
+        <v>200</v>
+      </c>
+      <c r="K44">
+        <v>1000</v>
+      </c>
+      <c r="L44">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>22</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45">
+        <v>480</v>
+      </c>
+      <c r="F45">
+        <v>500</v>
+      </c>
+      <c r="G45">
+        <v>200</v>
+      </c>
+      <c r="H45">
+        <v>1000</v>
+      </c>
+      <c r="I45">
+        <v>200</v>
+      </c>
+      <c r="K45">
+        <v>1000</v>
+      </c>
+      <c r="L45">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
         <v>20</v>
       </c>
-      <c r="B44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44">
+      <c r="E46">
+        <v>480</v>
+      </c>
+      <c r="F46">
+        <v>500</v>
+      </c>
+      <c r="G46">
+        <v>200</v>
+      </c>
+      <c r="H46">
+        <v>1000</v>
+      </c>
+      <c r="I46">
+        <v>200</v>
+      </c>
+      <c r="K46">
+        <v>1000</v>
+      </c>
+      <c r="L46">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47">
+        <v>480</v>
+      </c>
+      <c r="F47">
+        <v>500</v>
+      </c>
+      <c r="G47">
+        <v>200</v>
+      </c>
+      <c r="H47">
+        <v>1000</v>
+      </c>
+      <c r="I47">
+        <v>200</v>
+      </c>
+      <c r="K47">
+        <v>1000</v>
+      </c>
+      <c r="L47">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>30</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48">
+        <v>560</v>
+      </c>
+      <c r="F48">
+        <v>500</v>
+      </c>
+      <c r="G48">
+        <v>200</v>
+      </c>
+      <c r="H48">
+        <v>1000</v>
+      </c>
+      <c r="I48">
+        <v>200</v>
+      </c>
+      <c r="K48">
+        <v>1000</v>
+      </c>
+      <c r="L48">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49">
+        <v>31</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49">
+        <v>560</v>
+      </c>
+      <c r="F49">
+        <v>500</v>
+      </c>
+      <c r="G49">
+        <v>200</v>
+      </c>
+      <c r="H49">
+        <v>1000</v>
+      </c>
+      <c r="I49">
+        <v>200</v>
+      </c>
+      <c r="K49">
+        <v>1000</v>
+      </c>
+      <c r="L49">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
         <v>20</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85">
+      <c r="B83" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
         <v>30</v>
       </c>
-      <c r="B85" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85">
+      <c r="B124" t="s">
+        <v>22</v>
+      </c>
+      <c r="D124">
         <v>30</v>
       </c>
     </row>
